--- a/Reports/Equipment_Locations_2021_Final.xlsx
+++ b/Reports/Equipment_Locations_2021_Final.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maddi\Dropbox\Disconnected Sites\GIS\Equipment Locations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maddi\Desktop\Box Sync\Thesis\Chinook Seasonal Floodplain Habitat\GitHub\seasonal-floodplains\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B3078A-FE03-40D6-B491-DD6BADAA8A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93FA554C-A2A9-402E-96A4-A09C33680863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{35359E95-7EC6-4412-B358-6147D0DBCB02}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="79">
   <si>
     <t>Unit type</t>
   </si>
@@ -262,6 +262,15 @@
   </si>
   <si>
     <t>JB, IH</t>
+  </si>
+  <si>
+    <t>DO Logger</t>
+  </si>
+  <si>
+    <t>Floral Lane Slough</t>
+  </si>
+  <si>
+    <t>IH</t>
   </si>
 </sst>
 </file>
@@ -629,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4A3D056-D4B4-4DD6-8193-8CE275562442}">
-  <dimension ref="A1:L56"/>
+  <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57:A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -642,6 +651,7 @@
     <col min="4" max="4" width="11.26953125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.453125" customWidth="1"/>
     <col min="8" max="8" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.81640625" customWidth="1"/>
     <col min="11" max="11" width="10.7265625" customWidth="1"/>
     <col min="12" max="12" width="11.453125" bestFit="1" customWidth="1"/>
@@ -2589,6 +2599,272 @@
         <v>-121.81735</v>
       </c>
     </row>
+    <row r="57" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B57" s="4">
+        <v>21060313</v>
+      </c>
+      <c r="C57" s="5">
+        <v>44355</v>
+      </c>
+      <c r="D57" s="6">
+        <v>0</v>
+      </c>
+      <c r="E57" s="4">
+        <v>15</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H57" s="5">
+        <v>44354</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K57" s="4">
+        <v>48.487577999999999</v>
+      </c>
+      <c r="L57" s="4">
+        <v>-121.64880700000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B58" s="4">
+        <v>21060313</v>
+      </c>
+      <c r="C58" s="5">
+        <v>44355</v>
+      </c>
+      <c r="D58" s="6">
+        <v>0</v>
+      </c>
+      <c r="E58" s="4">
+        <v>15</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H58" s="5">
+        <v>44356</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J58" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K58" s="4">
+        <v>48.480938000000002</v>
+      </c>
+      <c r="L58" s="4">
+        <v>-121.58788199999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B59" s="4">
+        <v>21060313</v>
+      </c>
+      <c r="C59" s="5">
+        <v>44355</v>
+      </c>
+      <c r="D59" s="6">
+        <v>0</v>
+      </c>
+      <c r="E59" s="4">
+        <v>15</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H59" s="5">
+        <v>44369</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J59" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K59" s="4">
+        <v>48.484699999999997</v>
+      </c>
+      <c r="L59" s="4">
+        <v>-121.61375</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B60" s="4">
+        <v>21060313</v>
+      </c>
+      <c r="C60" s="5">
+        <v>44389</v>
+      </c>
+      <c r="D60" s="6">
+        <v>0</v>
+      </c>
+      <c r="E60" s="4">
+        <v>15</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H60" s="5">
+        <v>44389</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J60" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="K60" s="4">
+        <v>48.497284999999998</v>
+      </c>
+      <c r="L60" s="4">
+        <v>-121.465881</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B61" s="4">
+        <v>21060313</v>
+      </c>
+      <c r="C61" s="5">
+        <v>44389</v>
+      </c>
+      <c r="D61" s="6">
+        <v>0</v>
+      </c>
+      <c r="E61" s="4">
+        <v>15</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H61" s="5">
+        <v>44391</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J61" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K61" s="4">
+        <v>48.512479999999996</v>
+      </c>
+      <c r="L61" s="4">
+        <v>-121.87991</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B62" s="4">
+        <v>21060313</v>
+      </c>
+      <c r="C62" s="5">
+        <v>44425</v>
+      </c>
+      <c r="D62" s="6">
+        <v>0</v>
+      </c>
+      <c r="E62" s="4">
+        <v>15</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H62" s="5">
+        <v>44426</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J62" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K62" s="4">
+        <v>48.515706000000002</v>
+      </c>
+      <c r="L62" s="4">
+        <v>-122.136735</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B63" s="4">
+        <v>21060313</v>
+      </c>
+      <c r="C63" s="5">
+        <v>44460</v>
+      </c>
+      <c r="D63" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E63" s="4">
+        <v>15</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H63" s="5">
+        <v>44460</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J63" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K63" s="4">
+        <v>48.503030000000003</v>
+      </c>
+      <c r="L63" s="4">
+        <v>-121.718829</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L56">
     <sortCondition ref="A1:A56"/>

--- a/Reports/Equipment_Locations_2021_Final.xlsx
+++ b/Reports/Equipment_Locations_2021_Final.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maddi\Desktop\Box Sync\Thesis\Chinook Seasonal Floodplain Habitat\GitHub\seasonal-floodplains\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93FA554C-A2A9-402E-96A4-A09C33680863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4597F99-B1DE-4665-9CF1-BF2E63A2F124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{35359E95-7EC6-4412-B358-6147D0DBCB02}"/>
   </bookViews>
@@ -34,20 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="75">
   <si>
     <t>Unit type</t>
   </si>
   <si>
-    <t>Serial number</t>
-  </si>
-  <si>
-    <t>Start date</t>
-  </si>
-  <si>
-    <t>Start time</t>
-  </si>
-  <si>
     <t>Interval (min)</t>
   </si>
   <si>
@@ -57,15 +48,6 @@
     <t>Installed by</t>
   </si>
   <si>
-    <t>Installed on date</t>
-  </si>
-  <si>
-    <t>MH site code</t>
-  </si>
-  <si>
-    <t>Site installed</t>
-  </si>
-  <si>
     <t>Latitude</t>
   </si>
   <si>
@@ -81,15 +63,9 @@
     <t>AP</t>
   </si>
   <si>
-    <t>Powerline pond</t>
-  </si>
-  <si>
     <t>R</t>
   </si>
   <si>
-    <t>House Slough</t>
-  </si>
-  <si>
     <t>P</t>
   </si>
   <si>
@@ -99,24 +75,15 @@
     <t>AQ</t>
   </si>
   <si>
-    <t>Floral Lane oxbow</t>
-  </si>
-  <si>
     <t>AAF</t>
   </si>
   <si>
-    <t>Illabot Slough channel</t>
-  </si>
-  <si>
     <t>CA, IH</t>
   </si>
   <si>
     <t>L</t>
   </si>
   <si>
-    <t>Cumberland oxbow</t>
-  </si>
-  <si>
     <t>MH</t>
   </si>
   <si>
@@ -207,18 +174,12 @@
     <t>Level Logger</t>
   </si>
   <si>
-    <t>Barometer</t>
-  </si>
-  <si>
     <t>Timelapse Camera</t>
   </si>
   <si>
     <t>AAC</t>
   </si>
   <si>
-    <t>Government Bridge</t>
-  </si>
-  <si>
     <t>MH, BH, IH</t>
   </si>
   <si>
@@ -231,12 +192,6 @@
     <t>CA, ES, IH, JB</t>
   </si>
   <si>
-    <t>530 bridge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CA, ES </t>
-  </si>
-  <si>
     <t>AC</t>
   </si>
   <si>
@@ -267,10 +222,43 @@
     <t>DO Logger</t>
   </si>
   <si>
-    <t>Floral Lane Slough</t>
-  </si>
-  <si>
     <t>IH</t>
+  </si>
+  <si>
+    <t>Cumberland Oxbow</t>
+  </si>
+  <si>
+    <t>Sauk Boat Launch</t>
+  </si>
+  <si>
+    <t>Illabot Chum Channel</t>
+  </si>
+  <si>
+    <t>Powerline Pond</t>
+  </si>
+  <si>
+    <t>Floral Lane Oxbow</t>
+  </si>
+  <si>
+    <t>Hurn Field</t>
+  </si>
+  <si>
+    <t>Serial Number</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>Start Time</t>
+  </si>
+  <si>
+    <t>Installed on Date</t>
+  </si>
+  <si>
+    <t>Site Code</t>
+  </si>
+  <si>
+    <t>Site Name</t>
   </si>
 </sst>
 </file>
@@ -638,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4A3D056-D4B4-4DD6-8193-8CE275562442}">
-  <dimension ref="A1:L63"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57:A63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -662,48 +650,48 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B2" s="4">
-        <v>2136293</v>
+        <v>21060313</v>
       </c>
       <c r="C2" s="5">
-        <v>44322</v>
+        <v>44355</v>
       </c>
       <c r="D2" s="6">
         <v>0</v>
@@ -712,71 +700,71 @@
         <v>15</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H2" s="5">
-        <v>44321</v>
+        <v>44354</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="K2" s="4">
-        <v>48.538049999999998</v>
+        <v>48.487577999999999</v>
       </c>
       <c r="L2" s="4">
-        <v>-121.81741</v>
+        <v>-121.64880700000001</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="4">
-        <v>2136290</v>
-      </c>
-      <c r="C3" s="5">
-        <v>44369</v>
-      </c>
-      <c r="D3" s="6">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4">
-        <v>15</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="H3" s="5">
-        <v>44368</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="4" t="s">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3">
+        <v>2136259</v>
+      </c>
+      <c r="C3" s="2">
+        <v>44355</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="4">
-        <v>48.515619999999998</v>
-      </c>
-      <c r="L3" s="4">
-        <v>-121.00637</v>
+      <c r="H3" s="8">
+        <v>44356</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="7">
+        <v>48.488900999999998</v>
+      </c>
+      <c r="L3" s="7">
+        <v>-121.650218</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>2136259</v>
+        <v>21047524</v>
       </c>
       <c r="C4" s="2">
         <v>44355</v>
@@ -788,74 +776,59 @@
         <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="8">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="2">
         <v>44356</v>
       </c>
-      <c r="I4" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="K4" s="7">
+      <c r="I4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4">
         <v>48.488900999999998</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4">
         <v>-121.650218</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5">
-        <v>2136245</v>
-      </c>
-      <c r="C5" s="2">
-        <v>44355</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="G5" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="H5" s="2">
-        <v>44358</v>
+        <v>44356</v>
       </c>
       <c r="I5" t="s">
-        <v>51</v>
-      </c>
-      <c r="J5" t="s">
-        <v>52</v>
+        <v>32</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="K5">
-        <v>48.365605000000002</v>
+        <v>48.488748000000001</v>
       </c>
       <c r="L5">
-        <v>-121.54596100000001</v>
+        <v>-121.650496</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B6">
-        <v>2136247</v>
+        <v>2136245</v>
       </c>
       <c r="C6" s="2">
-        <v>44331</v>
+        <v>44355</v>
       </c>
       <c r="D6" s="3">
         <v>0</v>
@@ -864,36 +837,36 @@
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="H6" s="2">
-        <v>44330</v>
+        <v>44358</v>
       </c>
       <c r="I6" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="J6" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="K6">
-        <v>48.515419999999999</v>
+        <v>48.365605000000002</v>
       </c>
       <c r="L6">
-        <v>-122.13809999999999</v>
+        <v>-121.54596100000001</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="B7">
-        <v>2134270</v>
+        <v>21063851</v>
       </c>
       <c r="C7" s="2">
-        <v>44322</v>
+        <v>44359</v>
       </c>
       <c r="D7" s="3">
         <v>0</v>
@@ -902,226 +875,196 @@
         <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="H7" s="2">
-        <v>44321</v>
+        <v>44358</v>
       </c>
       <c r="I7" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="J7" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="K7">
-        <v>48.495849999999997</v>
+        <v>48.365605000000002</v>
       </c>
       <c r="L7">
-        <v>-121.49357999999999</v>
+        <v>-121.54596100000001</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8">
-        <v>2136242</v>
-      </c>
-      <c r="C8" s="2">
-        <v>44344</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="H8" s="2">
-        <v>44343</v>
+        <v>44358</v>
       </c>
       <c r="I8" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="J8" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="K8">
-        <v>48.476649999999999</v>
+        <v>48.366107</v>
       </c>
       <c r="L8">
-        <v>-121.6435</v>
+        <v>-121.546693</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9">
-        <v>2136259</v>
-      </c>
-      <c r="C9" s="2">
-        <v>44355</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>15</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="2">
-        <v>44356</v>
-      </c>
-      <c r="I9" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K9">
-        <v>48.481606999999997</v>
-      </c>
-      <c r="L9">
-        <v>-121.587726</v>
+      <c r="A9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="4">
+        <v>2136239</v>
+      </c>
+      <c r="C9" s="5">
+        <v>44369</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>15</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="5">
+        <v>44368</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K9" s="4">
+        <v>48.35378</v>
+      </c>
+      <c r="L9" s="4">
+        <v>-121.55262</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10">
-        <v>2136243</v>
-      </c>
-      <c r="C10" s="2">
-        <v>44327</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>15</v>
-      </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="2">
-        <v>44326</v>
-      </c>
-      <c r="I10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J10" t="s">
-        <v>55</v>
-      </c>
-      <c r="K10">
-        <v>48.475340000000003</v>
-      </c>
-      <c r="L10">
-        <v>-121.56828</v>
+      <c r="A10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="4">
+        <v>21086310</v>
+      </c>
+      <c r="C10" s="5">
+        <v>44369</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>15</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="5">
+        <v>44368</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" s="4">
+        <v>48.35378</v>
+      </c>
+      <c r="L10" s="4">
+        <v>-121.55262</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11">
-        <v>2134271</v>
-      </c>
-      <c r="C11" s="2">
-        <v>44322</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>15</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="H11" s="2">
-        <v>44321</v>
+        <v>44358</v>
       </c>
       <c r="I11" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" t="s">
-        <v>15</v>
+        <v>47</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="K11">
-        <v>48.502659999999999</v>
+        <v>48.356175</v>
       </c>
       <c r="L11">
-        <v>-121.48882</v>
+        <v>-121.554253</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12">
-        <v>2136238</v>
-      </c>
-      <c r="C12" s="2">
-        <v>44322</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>15</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="2">
-        <v>44321</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="A12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="4">
+        <v>21060313</v>
+      </c>
+      <c r="C12" s="5">
+        <v>44425</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>15</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="5">
+        <v>44426</v>
+      </c>
+      <c r="I12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K12">
-        <v>48.497430000000001</v>
-      </c>
-      <c r="L12">
-        <v>-121.46841000000001</v>
+      <c r="K12" s="4">
+        <v>48.515706000000002</v>
+      </c>
+      <c r="L12" s="4">
+        <v>-122.136735</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B13">
-        <v>2136248</v>
+        <v>2136247</v>
       </c>
       <c r="C13" s="2">
-        <v>44355</v>
+        <v>44331</v>
       </c>
       <c r="D13" s="3">
         <v>0</v>
@@ -1130,36 +1073,36 @@
         <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G13" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="H13" s="2">
-        <v>44357</v>
+        <v>44330</v>
       </c>
       <c r="I13" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="J13" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="K13">
-        <v>48.478825999999998</v>
+        <v>48.515419999999999</v>
       </c>
       <c r="L13">
-        <v>-122.274602</v>
+        <v>-122.13809999999999</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="B14">
-        <v>2136244</v>
+        <v>21063852</v>
       </c>
       <c r="C14" s="2">
-        <v>44355</v>
+        <v>44331</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
@@ -1168,36 +1111,36 @@
         <v>15</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G14" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="H14" s="2">
-        <v>44357</v>
+        <v>44330</v>
       </c>
       <c r="I14" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="J14" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="K14">
-        <v>48.493595999999997</v>
+        <v>48.515419999999999</v>
       </c>
       <c r="L14">
-        <v>-122.191565</v>
+        <v>-122.13809999999999</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B15">
-        <v>2136258</v>
+        <v>2134270</v>
       </c>
       <c r="C15" s="2">
-        <v>44355</v>
+        <v>44322</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
@@ -1206,36 +1149,36 @@
         <v>15</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G15" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="H15" s="2">
-        <v>44357</v>
+        <v>44321</v>
       </c>
       <c r="I15" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="J15" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="K15">
-        <v>48.488236999999998</v>
+        <v>48.495849999999997</v>
       </c>
       <c r="L15">
-        <v>-122.16058099999999</v>
+        <v>-121.49357999999999</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="B16">
-        <v>2136241</v>
+        <v>20772099</v>
       </c>
       <c r="C16" s="2">
-        <v>44331</v>
+        <v>44322</v>
       </c>
       <c r="D16" s="3">
         <v>0</v>
@@ -1244,36 +1187,36 @@
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G16" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="H16" s="2">
-        <v>44330</v>
+        <v>44321</v>
       </c>
       <c r="I16" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="J16" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="K16">
-        <v>48.523890000000002</v>
+        <v>48.49588</v>
       </c>
       <c r="L16">
-        <v>-122.09827</v>
+        <v>-121.49375999999999</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B17">
-        <v>2136261</v>
+        <v>2136242</v>
       </c>
       <c r="C17" s="2">
-        <v>44327</v>
+        <v>44344</v>
       </c>
       <c r="D17" s="3">
         <v>0</v>
@@ -1282,36 +1225,36 @@
         <v>15</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G17" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="H17" s="2">
-        <v>44326</v>
+        <v>44343</v>
       </c>
       <c r="I17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K17">
-        <v>48.51549</v>
+        <v>48.476649999999999</v>
       </c>
       <c r="L17">
-        <v>-122.00660000000001</v>
+        <v>-121.6435</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="B18">
-        <v>2134895</v>
+        <v>20821479</v>
       </c>
       <c r="C18" s="2">
-        <v>44322</v>
+        <v>44343</v>
       </c>
       <c r="D18" s="3">
         <v>0</v>
@@ -1320,109 +1263,94 @@
         <v>15</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="H18" s="2">
-        <v>44321</v>
+        <v>44343</v>
       </c>
       <c r="I18" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J18" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K18">
-        <v>48.512520000000002</v>
+        <v>48.476649999999999</v>
       </c>
       <c r="L18">
-        <v>-121.87944</v>
+        <v>-121.6435</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19">
-        <v>2136430</v>
-      </c>
-      <c r="C19" s="2">
-        <v>44322</v>
-      </c>
-      <c r="D19" s="3">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>15</v>
-      </c>
-      <c r="F19" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="H19" s="2">
-        <v>44321</v>
+        <v>44329</v>
       </c>
       <c r="I19" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J19" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="K19">
-        <v>48.53792</v>
+        <v>48.477153000000001</v>
       </c>
       <c r="L19">
-        <v>-121.81744</v>
+        <v>-121.64456300000001</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20">
-        <v>2136251</v>
-      </c>
-      <c r="C20" s="2">
-        <v>44344</v>
-      </c>
-      <c r="D20" s="3">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>15</v>
-      </c>
-      <c r="F20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="2">
-        <v>44343</v>
-      </c>
-      <c r="I20" t="s">
-        <v>35</v>
-      </c>
-      <c r="J20" t="s">
-        <v>36</v>
-      </c>
-      <c r="K20">
-        <v>48.502859999999998</v>
-      </c>
-      <c r="L20">
-        <v>-121.71886000000001</v>
+      <c r="A20" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="4">
+        <v>21060313</v>
+      </c>
+      <c r="C20" s="5">
+        <v>44355</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4">
+        <v>15</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="5">
+        <v>44369</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K20" s="4">
+        <v>48.484699999999997</v>
+      </c>
+      <c r="L20" s="4">
+        <v>-121.61375</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B21" s="4">
-        <v>2136239</v>
+        <v>2136252</v>
       </c>
       <c r="C21" s="5">
         <v>44369</v>
@@ -1434,33 +1362,33 @@
         <v>15</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="H21" s="5">
-        <v>44368</v>
+        <v>44369</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="K21" s="4">
-        <v>48.35378</v>
+        <v>48.484699999999997</v>
       </c>
       <c r="L21" s="4">
-        <v>-121.55262</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+        <v>-121.61375</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="B22" s="4">
-        <v>2136252</v>
+        <v>21086307</v>
       </c>
       <c r="C22" s="5">
         <v>44369</v>
@@ -1472,19 +1400,19 @@
         <v>15</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H22" s="5">
         <v>44369</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="K22" s="4">
         <v>48.484699999999997</v>
@@ -1493,91 +1421,76 @@
         <v>-121.61375</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" s="4">
-        <v>2136254</v>
-      </c>
-      <c r="C23" s="5">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23" t="s">
+        <v>60</v>
+      </c>
+      <c r="H23" s="2">
         <v>44369</v>
       </c>
-      <c r="D23" s="6">
-        <v>0</v>
-      </c>
-      <c r="E23" s="4">
-        <v>15</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="H23" s="5">
-        <v>44370</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="K23" s="4">
-        <v>48.513280000000002</v>
-      </c>
-      <c r="L23" s="4">
-        <v>-121.70975</v>
+      <c r="I23" t="s">
+        <v>52</v>
+      </c>
+      <c r="J23" t="s">
+        <v>53</v>
+      </c>
+      <c r="K23">
+        <v>48.484720000000003</v>
+      </c>
+      <c r="L23">
+        <v>-121.61469</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24">
-        <v>21047524</v>
-      </c>
-      <c r="C24" s="2">
+      <c r="A24" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="4">
+        <v>21060313</v>
+      </c>
+      <c r="C24" s="5">
         <v>44355</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>15</v>
-      </c>
-      <c r="F24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" t="s">
-        <v>37</v>
-      </c>
-      <c r="H24" s="2">
+      <c r="D24" s="6">
+        <v>0</v>
+      </c>
+      <c r="E24" s="4">
+        <v>15</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="5">
         <v>44356</v>
       </c>
-      <c r="I24" t="s">
-        <v>43</v>
-      </c>
-      <c r="J24" t="s">
-        <v>44</v>
-      </c>
-      <c r="K24">
-        <v>48.488900999999998</v>
-      </c>
-      <c r="L24">
-        <v>-121.650218</v>
+      <c r="I24" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" s="4">
+        <v>48.480938000000002</v>
+      </c>
+      <c r="L24" s="4">
+        <v>-121.58788199999999</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B25">
-        <v>21063851</v>
+        <v>2136259</v>
       </c>
       <c r="C25" s="2">
-        <v>44359</v>
+        <v>44355</v>
       </c>
       <c r="D25" s="3">
         <v>0</v>
@@ -1586,36 +1499,36 @@
         <v>15</v>
       </c>
       <c r="F25" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" s="2">
+        <v>44356</v>
+      </c>
+      <c r="I25" t="s">
         <v>27</v>
       </c>
-      <c r="G25" t="s">
-        <v>50</v>
-      </c>
-      <c r="H25" s="2">
-        <v>44358</v>
-      </c>
-      <c r="I25" t="s">
-        <v>51</v>
-      </c>
       <c r="J25" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="K25">
-        <v>48.365605000000002</v>
+        <v>48.481606999999997</v>
       </c>
       <c r="L25">
-        <v>-121.54596100000001</v>
+        <v>-121.587726</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B26">
-        <v>21063852</v>
+        <v>21063853</v>
       </c>
       <c r="C26" s="2">
-        <v>44331</v>
+        <v>44355</v>
       </c>
       <c r="D26" s="3">
         <v>0</v>
@@ -1624,74 +1537,59 @@
         <v>15</v>
       </c>
       <c r="F26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H26" s="2">
+        <v>44356</v>
+      </c>
+      <c r="I26" t="s">
         <v>27</v>
       </c>
-      <c r="G26" t="s">
+      <c r="J26" t="s">
         <v>28</v>
       </c>
-      <c r="H26" s="2">
-        <v>44330</v>
-      </c>
-      <c r="I26" t="s">
-        <v>31</v>
-      </c>
-      <c r="J26" t="s">
-        <v>32</v>
-      </c>
       <c r="K26">
-        <v>48.515419999999999</v>
+        <v>48.481606999999997</v>
       </c>
       <c r="L26">
-        <v>-122.13809999999999</v>
+        <v>-121.587726</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27">
-        <v>20772099</v>
-      </c>
-      <c r="C27" s="2">
-        <v>44322</v>
-      </c>
-      <c r="D27" s="3">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>15</v>
-      </c>
-      <c r="F27" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="H27" s="2">
-        <v>44321</v>
+        <v>44356</v>
       </c>
       <c r="I27" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J27" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K27">
-        <v>48.49588</v>
+        <v>48.481845</v>
       </c>
       <c r="L27">
-        <v>-121.49375999999999</v>
+        <v>-121.58763</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B28">
-        <v>20821479</v>
+        <v>21063845</v>
       </c>
       <c r="C28" s="2">
-        <v>44343</v>
+        <v>44426</v>
       </c>
       <c r="D28" s="3">
         <v>0</v>
@@ -1700,36 +1598,36 @@
         <v>15</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G28" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="H28" s="2">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="I28" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="J28" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="K28">
-        <v>48.476649999999999</v>
+        <v>48.486178000000002</v>
       </c>
       <c r="L28">
-        <v>-121.6435</v>
+        <v>-121.58985800000001</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B29">
-        <v>21063853</v>
+        <v>2136243</v>
       </c>
       <c r="C29" s="2">
-        <v>44355</v>
+        <v>44327</v>
       </c>
       <c r="D29" s="3">
         <v>0</v>
@@ -1738,71 +1636,56 @@
         <v>15</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G29" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="H29" s="2">
-        <v>44356</v>
+        <v>44326</v>
       </c>
       <c r="I29" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J29" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="K29">
-        <v>48.481606999999997</v>
+        <v>48.475340000000003</v>
       </c>
       <c r="L29">
-        <v>-121.587726</v>
+        <v>-121.56828</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>53</v>
-      </c>
-      <c r="B30">
-        <v>20772094</v>
-      </c>
-      <c r="C30" s="2">
-        <v>44322</v>
-      </c>
-      <c r="D30" s="3">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>15</v>
-      </c>
-      <c r="F30" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="H30" s="2">
-        <v>44321</v>
+        <v>44329</v>
       </c>
       <c r="I30" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="J30" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="K30">
-        <v>48.502369999999999</v>
+        <v>48.480409999999999</v>
       </c>
       <c r="L30">
-        <v>-121.48957</v>
+        <v>-121.576402</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B31">
-        <v>20874411</v>
+        <v>2134271</v>
       </c>
       <c r="C31" s="2">
         <v>44322</v>
@@ -1814,36 +1697,36 @@
         <v>15</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G31" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H31" s="2">
         <v>44321</v>
       </c>
       <c r="I31" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="J31" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="K31">
-        <v>48.497259999999997</v>
+        <v>48.502659999999999</v>
       </c>
       <c r="L31">
-        <v>-121.46803</v>
+        <v>-121.48882</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B32">
-        <v>21053121</v>
+        <v>20772094</v>
       </c>
       <c r="C32" s="2">
-        <v>44355</v>
+        <v>44322</v>
       </c>
       <c r="D32" s="3">
         <v>0</v>
@@ -1852,167 +1735,173 @@
         <v>15</v>
       </c>
       <c r="F32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32" t="s">
+        <v>7</v>
+      </c>
+      <c r="H32" s="2">
+        <v>44321</v>
+      </c>
+      <c r="I32" t="s">
+        <v>8</v>
+      </c>
+      <c r="J32" t="s">
+        <v>66</v>
+      </c>
+      <c r="K32">
+        <v>48.502369999999999</v>
+      </c>
+      <c r="L32">
+        <v>-121.48957</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A33" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="4">
+        <v>21060313</v>
+      </c>
+      <c r="C33" s="5">
+        <v>44389</v>
+      </c>
+      <c r="D33" s="6">
+        <v>0</v>
+      </c>
+      <c r="E33" s="4">
+        <v>15</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H33" s="5">
+        <v>44389</v>
+      </c>
+      <c r="I33" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G32" t="s">
-        <v>40</v>
-      </c>
-      <c r="H32" s="2">
-        <v>44357</v>
-      </c>
-      <c r="I32" t="s">
-        <v>41</v>
-      </c>
-      <c r="J32" t="s">
-        <v>42</v>
-      </c>
-      <c r="K32">
-        <v>48.478825999999998</v>
-      </c>
-      <c r="L32">
-        <v>-122.274602</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>53</v>
-      </c>
-      <c r="B33">
-        <v>21063859</v>
-      </c>
-      <c r="F33" t="s">
-        <v>45</v>
-      </c>
-      <c r="G33" t="s">
-        <v>40</v>
-      </c>
-      <c r="H33" s="2">
-        <v>44357</v>
-      </c>
-      <c r="I33" t="s">
-        <v>46</v>
-      </c>
-      <c r="J33" t="s">
-        <v>47</v>
-      </c>
-      <c r="K33">
-        <v>48.493595999999997</v>
-      </c>
-      <c r="L33">
-        <v>-122.191565</v>
+      <c r="J33" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K33" s="4">
+        <v>48.497284999999998</v>
+      </c>
+      <c r="L33" s="4">
+        <v>-121.465881</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B34">
-        <v>21053124</v>
+        <v>2136238</v>
+      </c>
+      <c r="C34" s="2">
+        <v>44322</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>15</v>
       </c>
       <c r="F34" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="G34" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="H34" s="2">
-        <v>44357</v>
+        <v>44321</v>
       </c>
       <c r="I34" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="J34" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="K34">
-        <v>48.488236999999998</v>
+        <v>48.497430000000001</v>
       </c>
       <c r="L34">
-        <v>-122.16058099999999</v>
+        <v>-121.46841000000001</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B35">
-        <v>21063848</v>
+        <v>20874411</v>
       </c>
       <c r="C35" s="2">
-        <v>44331</v>
+        <v>44322</v>
       </c>
       <c r="D35" s="3">
         <v>0</v>
       </c>
+      <c r="E35">
+        <v>15</v>
+      </c>
       <c r="F35" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="G35" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="H35" s="2">
-        <v>44330</v>
+        <v>44321</v>
       </c>
       <c r="I35" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="J35" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="K35">
-        <v>48.523890000000002</v>
+        <v>48.497259999999997</v>
       </c>
       <c r="L35">
-        <v>-122.09827</v>
+        <v>-121.46803</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>53</v>
-      </c>
-      <c r="B36">
-        <v>20772086</v>
-      </c>
-      <c r="C36" s="2">
-        <v>44327</v>
-      </c>
-      <c r="D36" s="3">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>15</v>
-      </c>
-      <c r="F36" t="s">
+        <v>46</v>
+      </c>
+      <c r="G36" t="s">
+        <v>49</v>
+      </c>
+      <c r="H36" s="2">
+        <v>44329</v>
+      </c>
+      <c r="I36" t="s">
         <v>12</v>
       </c>
-      <c r="G36" t="s">
-        <v>24</v>
-      </c>
-      <c r="H36" s="2">
-        <v>44326</v>
-      </c>
-      <c r="I36" t="s">
-        <v>25</v>
-      </c>
       <c r="J36" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="K36">
-        <v>48.51549</v>
+        <v>48.500515999999998</v>
       </c>
       <c r="L36">
-        <v>-122.00660000000001</v>
+        <v>-121.473016</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B37">
-        <v>20874419</v>
+        <v>2136248</v>
       </c>
       <c r="C37" s="2">
-        <v>44322</v>
+        <v>44355</v>
       </c>
       <c r="D37" s="3">
         <v>0</v>
@@ -2021,36 +1910,36 @@
         <v>15</v>
       </c>
       <c r="F37" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G37" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="H37" s="2">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="I37" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="J37" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="K37">
-        <v>48.512479999999996</v>
+        <v>48.478825999999998</v>
       </c>
       <c r="L37">
-        <v>-121.87991</v>
+        <v>-122.274602</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>20874407</v>
+        <v>21053121</v>
       </c>
       <c r="C38" s="2">
-        <v>44322</v>
+        <v>44355</v>
       </c>
       <c r="D38" s="3">
         <v>0</v>
@@ -2059,188 +1948,149 @@
         <v>15</v>
       </c>
       <c r="F38" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G38" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="H38" s="2">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="I38" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="J38" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="K38">
-        <v>48.53792</v>
+        <v>48.478825999999998</v>
       </c>
       <c r="L38">
-        <v>-121.81757</v>
+        <v>-122.274602</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>53</v>
-      </c>
-      <c r="B39">
-        <v>21053112</v>
-      </c>
-      <c r="C39" s="2">
-        <v>44343</v>
-      </c>
-      <c r="D39" s="3">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>15</v>
-      </c>
-      <c r="F39" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="G39" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="H39" s="2">
-        <v>44343</v>
+        <v>44357</v>
       </c>
       <c r="I39" t="s">
+        <v>30</v>
+      </c>
+      <c r="J39" t="s">
+        <v>31</v>
+      </c>
+      <c r="K39">
+        <v>48.478755</v>
+      </c>
+      <c r="L39">
+        <v>-122.274734</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40">
+        <v>2136244</v>
+      </c>
+      <c r="C40" s="2">
+        <v>44355</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>15</v>
+      </c>
+      <c r="F40" t="s">
+        <v>6</v>
+      </c>
+      <c r="G40" t="s">
+        <v>29</v>
+      </c>
+      <c r="H40" s="2">
+        <v>44357</v>
+      </c>
+      <c r="I40" t="s">
         <v>35</v>
       </c>
-      <c r="J39" t="s">
+      <c r="J40" t="s">
         <v>36</v>
       </c>
-      <c r="K39">
-        <v>48.502859999999998</v>
-      </c>
-      <c r="L39">
-        <v>-121.71886000000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A40" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B40" s="4">
-        <v>21086310</v>
-      </c>
-      <c r="C40" s="5">
-        <v>44369</v>
-      </c>
-      <c r="D40" s="6">
-        <v>0</v>
-      </c>
-      <c r="E40" s="4">
-        <v>15</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="H40" s="5">
-        <v>44368</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="J40" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="K40" s="4">
-        <v>48.35378</v>
-      </c>
-      <c r="L40" s="4">
-        <v>-121.55262</v>
+      <c r="K40">
+        <v>48.493595999999997</v>
+      </c>
+      <c r="L40">
+        <v>-122.191565</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A41" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B41" s="4">
-        <v>21086307</v>
-      </c>
-      <c r="C41" s="5">
-        <v>44369</v>
-      </c>
-      <c r="D41" s="6">
-        <v>0</v>
-      </c>
-      <c r="E41" s="4">
-        <v>15</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H41" s="5">
-        <v>44369</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="J41" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="K41" s="4">
-        <v>48.484699999999997</v>
-      </c>
-      <c r="L41" s="4">
-        <v>-121.61375</v>
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41">
+        <v>21063859</v>
+      </c>
+      <c r="F41" t="s">
+        <v>34</v>
+      </c>
+      <c r="G41" t="s">
+        <v>29</v>
+      </c>
+      <c r="H41" s="2">
+        <v>44357</v>
+      </c>
+      <c r="I41" t="s">
+        <v>35</v>
+      </c>
+      <c r="J41" t="s">
+        <v>36</v>
+      </c>
+      <c r="K41">
+        <v>48.493595999999997</v>
+      </c>
+      <c r="L41">
+        <v>-122.191565</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>53</v>
-      </c>
-      <c r="B42">
-        <v>21086331</v>
-      </c>
-      <c r="C42" s="2">
-        <v>44369</v>
-      </c>
-      <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>15</v>
-      </c>
-      <c r="F42" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="G42" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="H42" s="2">
-        <v>44370</v>
+        <v>44357</v>
       </c>
       <c r="I42" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="J42" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="K42">
-        <v>48.513280000000002</v>
+        <v>48.493572999999998</v>
       </c>
       <c r="L42">
-        <v>-121.70975</v>
+        <v>-122.19179699999999</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B43">
-        <v>21063845</v>
+        <v>2136258</v>
       </c>
       <c r="C43" s="2">
-        <v>44426</v>
+        <v>44355</v>
       </c>
       <c r="D43" s="3">
         <v>0</v>
@@ -2249,168 +2099,231 @@
         <v>15</v>
       </c>
       <c r="F43" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="G43" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="H43" s="2">
-        <v>44425</v>
+        <v>44357</v>
       </c>
       <c r="I43" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="J43" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="K43">
-        <v>48.486178000000002</v>
+        <v>48.488236999999998</v>
       </c>
       <c r="L43">
-        <v>-121.58985800000001</v>
+        <v>-122.16058099999999</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>58</v>
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>21053124</v>
+      </c>
+      <c r="F44" t="s">
+        <v>34</v>
       </c>
       <c r="G44" t="s">
+        <v>29</v>
+      </c>
+      <c r="H44" s="2">
+        <v>44357</v>
+      </c>
+      <c r="I44" t="s">
         <v>37</v>
       </c>
-      <c r="H44" s="2">
-        <v>44356</v>
-      </c>
-      <c r="I44" t="s">
-        <v>43</v>
-      </c>
-      <c r="J44" s="7" t="s">
-        <v>44</v>
+      <c r="J44" t="s">
+        <v>38</v>
       </c>
       <c r="K44">
-        <v>48.488748000000001</v>
+        <v>48.488236999999998</v>
       </c>
       <c r="L44">
-        <v>-121.650496</v>
+        <v>-122.16058099999999</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="G45" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="H45" s="2">
-        <v>44358</v>
+        <v>44357</v>
       </c>
       <c r="I45" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="J45" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="K45">
-        <v>48.366107</v>
+        <v>48.488205999999998</v>
       </c>
       <c r="L45">
-        <v>-121.546693</v>
+        <v>-122.16057000000001</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>58</v>
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>2136241</v>
+      </c>
+      <c r="C46" s="2">
+        <v>44331</v>
+      </c>
+      <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>15</v>
+      </c>
+      <c r="F46" t="s">
+        <v>6</v>
       </c>
       <c r="G46" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="H46" s="2">
-        <v>44358</v>
+        <v>44330</v>
       </c>
       <c r="I46" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="J46" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="K46">
-        <v>48.356175</v>
+        <v>48.523890000000002</v>
       </c>
       <c r="L46">
-        <v>-121.554253</v>
+        <v>-122.09827</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>58</v>
+        <v>42</v>
+      </c>
+      <c r="B47">
+        <v>21063848</v>
+      </c>
+      <c r="C47" s="2">
+        <v>44331</v>
+      </c>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" t="s">
+        <v>16</v>
       </c>
       <c r="G47" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="H47" s="2">
-        <v>44329</v>
+        <v>44330</v>
       </c>
       <c r="I47" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="J47" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="K47">
-        <v>48.477153000000001</v>
+        <v>48.523890000000002</v>
       </c>
       <c r="L47">
-        <v>-121.64456300000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+        <v>-122.09827</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>58</v>
+        <v>45</v>
+      </c>
+      <c r="B48">
+        <v>2136261</v>
+      </c>
+      <c r="C48" s="2">
+        <v>44327</v>
+      </c>
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>15</v>
+      </c>
+      <c r="F48" t="s">
+        <v>6</v>
       </c>
       <c r="G48" t="s">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="H48" s="2">
-        <v>44369</v>
+        <v>44326</v>
       </c>
       <c r="I48" t="s">
-        <v>67</v>
-      </c>
-      <c r="J48" t="s">
-        <v>68</v>
+        <v>15</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="K48">
-        <v>48.484720000000003</v>
+        <v>48.51549</v>
       </c>
       <c r="L48">
-        <v>-121.61469</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+        <v>-122.00660000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>58</v>
+        <v>42</v>
+      </c>
+      <c r="B49">
+        <v>20772086</v>
+      </c>
+      <c r="C49" s="2">
+        <v>44327</v>
+      </c>
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>15</v>
+      </c>
+      <c r="F49" t="s">
+        <v>6</v>
       </c>
       <c r="G49" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="H49" s="2">
-        <v>44356</v>
+        <v>44326</v>
       </c>
       <c r="I49" t="s">
-        <v>38</v>
-      </c>
-      <c r="J49" t="s">
-        <v>39</v>
+        <v>15</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="K49">
-        <v>48.481845</v>
+        <v>48.51549</v>
       </c>
       <c r="L49">
-        <v>-121.58763</v>
+        <v>-122.00660000000001</v>
       </c>
     </row>
     <row r="50" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B50"/>
       <c r="C50"/>
@@ -2418,179 +2331,234 @@
       <c r="E50"/>
       <c r="F50"/>
       <c r="G50" t="s">
+        <v>50</v>
+      </c>
+      <c r="H50" s="2">
+        <v>44327</v>
+      </c>
+      <c r="I50" t="s">
+        <v>15</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K50">
+        <v>48.514226999999998</v>
+      </c>
+      <c r="L50">
+        <v>-122.007367</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="H50" s="2">
-        <v>44329</v>
-      </c>
-      <c r="I50" t="s">
-        <v>54</v>
-      </c>
-      <c r="J50" t="s">
-        <v>55</v>
-      </c>
-      <c r="K50">
-        <v>48.480409999999999</v>
-      </c>
-      <c r="L50">
-        <v>-121.576402</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>58</v>
-      </c>
-      <c r="B51"/>
-      <c r="C51"/>
-      <c r="D51"/>
-      <c r="E51"/>
-      <c r="F51"/>
-      <c r="G51" t="s">
-        <v>62</v>
-      </c>
-      <c r="H51" s="2">
-        <v>44329</v>
-      </c>
-      <c r="I51" t="s">
-        <v>20</v>
-      </c>
-      <c r="J51" t="s">
-        <v>21</v>
-      </c>
-      <c r="K51">
-        <v>48.500515999999998</v>
-      </c>
-      <c r="L51">
-        <v>-121.473016</v>
+      <c r="B51" s="4">
+        <v>21060313</v>
+      </c>
+      <c r="C51" s="5">
+        <v>44389</v>
+      </c>
+      <c r="D51" s="6">
+        <v>0</v>
+      </c>
+      <c r="E51" s="4">
+        <v>15</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H51" s="5">
+        <v>44391</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K51" s="4">
+        <v>48.512479999999996</v>
+      </c>
+      <c r="L51" s="4">
+        <v>-121.87991</v>
       </c>
     </row>
     <row r="52" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>58</v>
-      </c>
-      <c r="B52"/>
-      <c r="C52"/>
-      <c r="D52"/>
-      <c r="E52"/>
-      <c r="F52"/>
+        <v>45</v>
+      </c>
+      <c r="B52">
+        <v>2134895</v>
+      </c>
+      <c r="C52" s="2">
+        <v>44322</v>
+      </c>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>15</v>
+      </c>
+      <c r="F52" t="s">
+        <v>6</v>
+      </c>
       <c r="G52" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="H52" s="2">
-        <v>44357</v>
+        <v>44321</v>
       </c>
       <c r="I52" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="J52" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="K52">
-        <v>48.478755</v>
+        <v>48.512520000000002</v>
       </c>
       <c r="L52">
-        <v>-122.274734</v>
+        <v>-121.87944</v>
       </c>
     </row>
     <row r="53" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>58</v>
-      </c>
-      <c r="B53"/>
-      <c r="C53"/>
-      <c r="D53"/>
-      <c r="E53"/>
-      <c r="F53"/>
+        <v>42</v>
+      </c>
+      <c r="B53">
+        <v>20874419</v>
+      </c>
+      <c r="C53" s="2">
+        <v>44322</v>
+      </c>
+      <c r="D53" s="3">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>15</v>
+      </c>
+      <c r="F53" t="s">
+        <v>6</v>
+      </c>
       <c r="G53" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="H53" s="2">
-        <v>44357</v>
+        <v>44321</v>
       </c>
       <c r="I53" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="J53" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="K53">
-        <v>48.493572999999998</v>
+        <v>48.512479999999996</v>
       </c>
       <c r="L53">
-        <v>-122.19179699999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
+        <v>-121.87991</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>58</v>
-      </c>
-      <c r="B54"/>
-      <c r="C54"/>
-      <c r="D54"/>
-      <c r="E54"/>
-      <c r="F54"/>
+        <v>45</v>
+      </c>
+      <c r="B54">
+        <v>2136430</v>
+      </c>
+      <c r="C54" s="2">
+        <v>44322</v>
+      </c>
+      <c r="D54" s="3">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>15</v>
+      </c>
+      <c r="F54" t="s">
+        <v>6</v>
+      </c>
       <c r="G54" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="H54" s="2">
-        <v>44357</v>
+        <v>44321</v>
       </c>
       <c r="I54" t="s">
-        <v>48</v>
-      </c>
-      <c r="J54" t="s">
-        <v>49</v>
+        <v>9</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="K54">
-        <v>48.488205999999998</v>
+        <v>48.53792</v>
       </c>
       <c r="L54">
-        <v>-122.16057000000001</v>
+        <v>-121.81744</v>
       </c>
     </row>
     <row r="55" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>58</v>
-      </c>
-      <c r="B55"/>
-      <c r="C55"/>
-      <c r="D55"/>
-      <c r="E55"/>
-      <c r="F55"/>
+        <v>42</v>
+      </c>
+      <c r="B55">
+        <v>20874407</v>
+      </c>
+      <c r="C55" s="2">
+        <v>44322</v>
+      </c>
+      <c r="D55" s="3">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>15</v>
+      </c>
+      <c r="F55" t="s">
+        <v>6</v>
+      </c>
       <c r="G55" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="H55" s="2">
-        <v>44327</v>
+        <v>44321</v>
       </c>
       <c r="I55" t="s">
-        <v>25</v>
-      </c>
-      <c r="J55" t="s">
-        <v>26</v>
+        <v>9</v>
+      </c>
+      <c r="J55" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="K55">
-        <v>48.514226999999998</v>
+        <v>48.53792</v>
       </c>
       <c r="L55">
-        <v>-122.007367</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+        <v>-121.81757</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>58</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="B56"/>
+      <c r="C56"/>
+      <c r="D56"/>
+      <c r="E56"/>
+      <c r="F56"/>
       <c r="G56" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="H56" s="2">
         <v>44327</v>
       </c>
       <c r="I56" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="K56">
         <v>48.534464</v>
@@ -2601,13 +2569,13 @@
     </row>
     <row r="57" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="B57" s="4">
-        <v>21060313</v>
+        <v>2136254</v>
       </c>
       <c r="C57" s="5">
-        <v>44355</v>
+        <v>44369</v>
       </c>
       <c r="D57" s="6">
         <v>0</v>
@@ -2616,258 +2584,182 @@
         <v>15</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="H57" s="5">
-        <v>44354</v>
+        <v>44370</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="K57" s="4">
-        <v>48.487577999999999</v>
+        <v>48.513280000000002</v>
       </c>
       <c r="L57" s="4">
-        <v>-121.64880700000001</v>
+        <v>-121.70975</v>
       </c>
     </row>
     <row r="58" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B58" s="4">
-        <v>21060313</v>
-      </c>
-      <c r="C58" s="5">
-        <v>44355</v>
-      </c>
-      <c r="D58" s="6">
-        <v>0</v>
-      </c>
-      <c r="E58" s="4">
-        <v>15</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H58" s="5">
-        <v>44356</v>
-      </c>
-      <c r="I58" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J58" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K58" s="4">
-        <v>48.480938000000002</v>
-      </c>
-      <c r="L58" s="4">
-        <v>-121.58788199999999</v>
+      <c r="A58" t="s">
+        <v>42</v>
+      </c>
+      <c r="B58">
+        <v>21086331</v>
+      </c>
+      <c r="C58" s="2">
+        <v>44369</v>
+      </c>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>15</v>
+      </c>
+      <c r="F58" t="s">
+        <v>6</v>
+      </c>
+      <c r="G58" t="s">
+        <v>54</v>
+      </c>
+      <c r="H58" s="2">
+        <v>44370</v>
+      </c>
+      <c r="I58" t="s">
+        <v>55</v>
+      </c>
+      <c r="J58" t="s">
+        <v>56</v>
+      </c>
+      <c r="K58">
+        <v>48.513280000000002</v>
+      </c>
+      <c r="L58">
+        <v>-121.70975</v>
       </c>
     </row>
     <row r="59" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="B59" s="4">
         <v>21060313</v>
       </c>
       <c r="C59" s="5">
-        <v>44355</v>
+        <v>44460</v>
       </c>
       <c r="D59" s="6">
-        <v>0</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="E59" s="4">
         <v>15</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G59" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H59" s="5">
+        <v>44460</v>
+      </c>
+      <c r="I59" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H59" s="5">
-        <v>44369</v>
-      </c>
-      <c r="I59" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="J59" s="4" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="K59" s="4">
-        <v>48.484699999999997</v>
+        <v>48.503030000000003</v>
       </c>
       <c r="L59" s="4">
-        <v>-121.61375</v>
+        <v>-121.718829</v>
       </c>
     </row>
     <row r="60" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B60" s="4">
-        <v>21060313</v>
-      </c>
-      <c r="C60" s="5">
-        <v>44389</v>
-      </c>
-      <c r="D60" s="6">
-        <v>0</v>
-      </c>
-      <c r="E60" s="4">
-        <v>15</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H60" s="5">
-        <v>44389</v>
-      </c>
-      <c r="I60" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J60" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="K60" s="4">
-        <v>48.497284999999998</v>
-      </c>
-      <c r="L60" s="4">
-        <v>-121.465881</v>
+      <c r="A60" t="s">
+        <v>45</v>
+      </c>
+      <c r="B60">
+        <v>2136251</v>
+      </c>
+      <c r="C60" s="2">
+        <v>44344</v>
+      </c>
+      <c r="D60" s="3">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>15</v>
+      </c>
+      <c r="F60" t="s">
+        <v>6</v>
+      </c>
+      <c r="G60" t="s">
+        <v>6</v>
+      </c>
+      <c r="H60" s="2">
+        <v>44343</v>
+      </c>
+      <c r="I60" t="s">
+        <v>24</v>
+      </c>
+      <c r="J60" t="s">
+        <v>25</v>
+      </c>
+      <c r="K60">
+        <v>48.502859999999998</v>
+      </c>
+      <c r="L60">
+        <v>-121.71886000000001</v>
       </c>
     </row>
     <row r="61" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B61" s="4">
-        <v>21060313</v>
-      </c>
-      <c r="C61" s="5">
-        <v>44389</v>
-      </c>
-      <c r="D61" s="6">
-        <v>0</v>
-      </c>
-      <c r="E61" s="4">
-        <v>15</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H61" s="5">
-        <v>44391</v>
-      </c>
-      <c r="I61" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J61" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K61" s="4">
-        <v>48.512479999999996</v>
-      </c>
-      <c r="L61" s="4">
-        <v>-121.87991</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B62" s="4">
-        <v>21060313</v>
-      </c>
-      <c r="C62" s="5">
-        <v>44425</v>
-      </c>
-      <c r="D62" s="6">
-        <v>0</v>
-      </c>
-      <c r="E62" s="4">
-        <v>15</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G62" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H62" s="5">
-        <v>44426</v>
-      </c>
-      <c r="I62" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J62" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K62" s="4">
-        <v>48.515706000000002</v>
-      </c>
-      <c r="L62" s="4">
-        <v>-122.136735</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B63" s="4">
-        <v>21060313</v>
-      </c>
-      <c r="C63" s="5">
-        <v>44460</v>
-      </c>
-      <c r="D63" s="6">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="E63" s="4">
-        <v>15</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H63" s="5">
-        <v>44460</v>
-      </c>
-      <c r="I63" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J63" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K63" s="4">
-        <v>48.503030000000003</v>
-      </c>
-      <c r="L63" s="4">
-        <v>-121.718829</v>
+      <c r="A61" t="s">
+        <v>42</v>
+      </c>
+      <c r="B61">
+        <v>21053112</v>
+      </c>
+      <c r="C61" s="2">
+        <v>44343</v>
+      </c>
+      <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>15</v>
+      </c>
+      <c r="F61" t="s">
+        <v>6</v>
+      </c>
+      <c r="G61" t="s">
+        <v>6</v>
+      </c>
+      <c r="H61" s="2">
+        <v>44343</v>
+      </c>
+      <c r="I61" t="s">
+        <v>24</v>
+      </c>
+      <c r="J61" t="s">
+        <v>25</v>
+      </c>
+      <c r="K61">
+        <v>48.502859999999998</v>
+      </c>
+      <c r="L61">
+        <v>-121.71886000000001</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L56">
-    <sortCondition ref="A1:A56"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L64">
+    <sortCondition ref="I1:I64"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
